--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2947.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2947.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.109525148486722</v>
+        <v>1.101478576660156</v>
       </c>
       <c r="B1">
-        <v>2.674161495945026</v>
+        <v>0.8685930967330933</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.265453338623047</v>
       </c>
       <c r="D1">
-        <v>2.244192350936008</v>
+        <v>3.165665864944458</v>
       </c>
       <c r="E1">
-        <v>1.289393917622948</v>
+        <v>0.9391952753067017</v>
       </c>
     </row>
   </sheetData>
